--- a/medicine/Handicap/Atticus_Shaffer/Atticus_Shaffer.xlsx
+++ b/medicine/Handicap/Atticus_Shaffer/Atticus_Shaffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atticus Shaffer, né le 19 juin 1998 à Santa Clarita, aux États-Unis, est un acteur américain. Il est révélé, en 2009, pour son rôle de Brick Heck dans la série télévisée The Middle, le dernier fils qui adore les livres.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 19 juin 1998 à Santa Clarita en Californie, Atticus Shaffer vit avec ses parents Debbie et Ron Shaffer à Acton (Californie)[1], où il suit l'instruction à domicile[2]. Il est atteint d'une ostéogenèse imparfaite du type 4, héritée de sa mère ayant celle du type 1[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 19 juin 1998 à Santa Clarita en Californie, Atticus Shaffer vit avec ses parents Debbie et Ron Shaffer à Acton (Californie), où il suit l'instruction à domicile. Il est atteint d'une ostéogenèse imparfaite du type 4, héritée de sa mère ayant celle du type 1.
 </t>
         </is>
       </c>
@@ -542,41 +556,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atticus Shaffer commence sa carrière professionnelle en 2006 dans l'épisode La Classe au rodéo (The Class Rides a Bull) de la série La Classe (The Class)[2]. Il se fait ensuite connaître du public en interprétant le rôle de Brick, le benjamin surdoué dans The Middle.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atticus Shaffer commence sa carrière professionnelle en 2006 dans l'épisode La Classe au rodéo (The Class Rides a Bull) de la série La Classe (The Class). Il se fait ensuite connaître du public en interprétant le rôle de Brick, le benjamin surdoué dans The Middle.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Atticus_Shaffer</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Atticus_Shaffer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Filmographie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Film
-Télévision</t>
         </is>
       </c>
     </row>
